--- a/正式建模/可再生和不可再生能源分类.xlsx
+++ b/正式建模/可再生和不可再生能源分类.xlsx
@@ -19,12 +19,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>BMTCB</t>
-  </si>
-  <si>
-    <t>Biomass total consumption</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>FFTCB</t>
+  </si>
+  <si>
+    <t>RETCB</t>
+  </si>
+  <si>
+    <t>Renewable energy total consumption.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fossil fuel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renewable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fossil fuels, total consumption.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TETCB</t>
+  </si>
+  <si>
+    <t>Total energy consumption.</t>
+  </si>
+  <si>
+    <t>TEPRB</t>
+  </si>
+  <si>
+    <t>Total energy production.</t>
+  </si>
+  <si>
+    <t>coal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCB</t>
   </si>
   <si>
     <t>CLTCB</t>
@@ -33,72 +68,17 @@
     <t>Coal total consumption.</t>
   </si>
   <si>
-    <t>DFTCB</t>
-  </si>
-  <si>
-    <t>Distillate fuel oil total consumption.</t>
-  </si>
-  <si>
-    <t>ESTCB</t>
-  </si>
-  <si>
-    <t>Electricity total consumption (i.e., sold).</t>
-  </si>
-  <si>
-    <t>FFTCB</t>
-  </si>
-  <si>
-    <t>Fossil fuelS, total consumption.</t>
-  </si>
-  <si>
-    <t>GETCB</t>
-  </si>
-  <si>
-    <t>Geothermal energy total consumption.</t>
-  </si>
-  <si>
-    <t>JFTCB</t>
-  </si>
-  <si>
-    <t>Jet fuel total consumption.</t>
-  </si>
-  <si>
     <t>NGTCB</t>
   </si>
   <si>
     <t>Natural gas total consumption (including supplemental gaseous fuels).</t>
   </si>
   <si>
-    <t>PATCB</t>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>All petroleum products total consumption.</t>
-  </si>
-  <si>
-    <t>RETCB</t>
-  </si>
-  <si>
-    <t>RFTCB</t>
-  </si>
-  <si>
-    <t>Residual fuel oil total consumption.</t>
-  </si>
-  <si>
-    <t>WWTCB</t>
-  </si>
-  <si>
-    <t>Wood and waste total consumption.</t>
-  </si>
-  <si>
-    <t>Renewable energy total consumption.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fossil fuel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>renewable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +96,30 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -142,8 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -424,122 +431,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.19921875" customWidth="1"/>
     <col min="2" max="2" width="35.796875" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B13" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/正式建模/可再生和不可再生能源分类.xlsx
+++ b/正式建模/可再生和不可再生能源分类.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>FFTCB</t>
   </si>
@@ -80,13 +80,37 @@
   <si>
     <t>All petroleum products total consumption.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPRB</t>
+  </si>
+  <si>
+    <t>Renewable energy production.</t>
+  </si>
+  <si>
+    <t>NGMPB</t>
+  </si>
+  <si>
+    <t>Natural gas marketed production.</t>
+  </si>
+  <si>
+    <t>PAPRB</t>
+  </si>
+  <si>
+    <t>Crude oil production (including lease condensate).</t>
+  </si>
+  <si>
+    <t>CLPRB</t>
+  </si>
+  <si>
+    <t>Coal production.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +149,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,11 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -444,36 +476,48 @@
     <col min="3" max="3" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -483,26 +527,40 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -510,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>8</v>
       </c>
